--- a/compareResult/V3 비교 결과.xlsx
+++ b/compareResult/V3 비교 결과.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gachaPromptV3\compareResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF51125D-828F-4CEB-86FB-8ED2D0B43DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749AA3B7-572E-4C46-BA73-93B4175A95A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1224" windowWidth="21732" windowHeight="9756" activeTab="2" xr2:uid="{A333FCD5-051B-4B8A-BBE5-BD64E216CEBF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A333FCD5-051B-4B8A-BBE5-BD64E216CEBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Claude" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="73">
   <si>
     <t>평가 항목</t>
   </si>
@@ -392,6 +392,14 @@
       </rPr>
       <t>39.45점 : gachaClaudeV3는 NestJS의 DTO와 전역 ValidationPipe를 통해 입력값과 형식을 효과적으로 검증하고 중복 등록, 승인·거부, 상태 조회 등 요구 기능을 충실히 구현한다. DeviceService에서 ConflictException·NotFoundException·BadRequestException을 사용하여 오류 상황을 구체적으로 구분하고, 승인 시 SQS 큐를 생성한 뒤 DB 상태를 갱신하는 등 비즈니스 로직이 명확하다. 컨트롤러·서비스·인터페이스 계층을 명확히 분리해 재사용과 테스트가 용이하며, Swagger를 활용한 문서화도 잘 되어 있다. 다만 tenantId가 없을 때 일반 Error를 던져 500 오류로 처리되는 등 몇몇 예외 처리와 로깅 부분이 미흡하다.</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 코드가 돌아가는지 평가항목 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트코드(되는것  안되는것 둘다) 생성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -516,21 +524,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -548,6 +541,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90069C18-8BDB-4714-90D8-3EA4B1BF8816}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G12"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -887,40 +895,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="I1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="O1" s="10" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
     </row>
     <row r="2" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
@@ -1325,13 +1333,13 @@
       <c r="E14" s="5">
         <v>3</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
@@ -1349,11 +1357,11 @@
       <c r="E15" s="6">
         <v>3</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
@@ -1369,13 +1377,13 @@
       <c r="E16" s="3">
         <v>4</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
@@ -1391,11 +1399,11 @@
       <c r="E17" s="5">
         <v>3</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
     </row>
     <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
@@ -1413,11 +1421,11 @@
       <c r="E18" s="6">
         <v>4</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
@@ -1433,11 +1441,11 @@
       <c r="E19" s="3">
         <v>4</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
     </row>
     <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
@@ -1453,11 +1461,11 @@
       <c r="E20" s="5">
         <v>4</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
     </row>
     <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
@@ -1475,11 +1483,11 @@
       <c r="E21" s="6">
         <v>4</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
     </row>
     <row r="22" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
@@ -1495,11 +1503,11 @@
       <c r="E22" s="3">
         <v>4</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
     </row>
     <row r="23" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
@@ -1515,11 +1523,11 @@
       <c r="E23" s="5">
         <v>4</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
     </row>
     <row r="24" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8" t="s">
@@ -1537,11 +1545,11 @@
       <c r="E24" s="6">
         <v>4</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
     </row>
     <row r="25" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
@@ -1557,11 +1565,11 @@
       <c r="E25" s="5">
         <v>4</v>
       </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
     </row>
     <row r="26" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8" t="s">
@@ -1579,13 +1587,13 @@
       <c r="E26" s="6">
         <v>4</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
@@ -1601,83 +1609,83 @@
       <c r="E27" s="5">
         <v>3</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
     </row>
     <row r="28" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
     </row>
     <row r="29" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
     </row>
     <row r="30" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
     </row>
     <row r="31" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
     </row>
     <row r="32" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
     </row>
     <row r="33" spans="9:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
     </row>
     <row r="34" spans="9:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
     </row>
     <row r="35" spans="9:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
     </row>
     <row r="36" spans="9:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
     </row>
     <row r="37" spans="9:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1698,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFFD215-3154-41C5-AFE2-3F08BB540249}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1720,40 +1728,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="I1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="O1" s="10" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
     </row>
     <row r="2" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
@@ -1762,19 +1770,19 @@
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="14" t="s">
         <v>45</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="13" t="s">
         <v>29</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -1803,13 +1811,13 @@
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="17">
-        <v>5</v>
-      </c>
-      <c r="D4" s="17">
-        <v>4</v>
-      </c>
-      <c r="E4" s="17">
+      <c r="C4" s="12">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12">
+        <v>4</v>
+      </c>
+      <c r="E4" s="12">
         <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -1842,13 +1850,13 @@
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16">
-        <v>5</v>
-      </c>
-      <c r="D5" s="16">
-        <v>4</v>
-      </c>
-      <c r="E5" s="16">
+      <c r="C5" s="11">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11">
         <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1881,13 +1889,13 @@
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="16">
-        <v>5</v>
-      </c>
-      <c r="D6" s="16">
-        <v>4</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="C6" s="11">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11">
         <v>3</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1920,13 +1928,13 @@
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="15">
-        <v>4</v>
-      </c>
-      <c r="D7" s="15">
-        <v>4</v>
-      </c>
-      <c r="E7" s="15">
+      <c r="C7" s="10">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10">
+        <v>4</v>
+      </c>
+      <c r="E7" s="10">
         <v>3</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1961,13 +1969,13 @@
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="17">
-        <v>5</v>
-      </c>
-      <c r="D8" s="17">
-        <v>4</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="C8" s="12">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12">
         <v>3</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -2000,13 +2008,13 @@
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="16">
-        <v>5</v>
-      </c>
-      <c r="D9" s="16">
-        <v>4</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="C9" s="11">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11">
+        <v>4</v>
+      </c>
+      <c r="E9" s="11">
         <v>3</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -2039,13 +2047,13 @@
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="11">
         <v>2</v>
       </c>
-      <c r="D10" s="16">
-        <v>4</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="D10" s="11">
+        <v>4</v>
+      </c>
+      <c r="E10" s="11">
         <v>3</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -2078,13 +2086,13 @@
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="15">
-        <v>5</v>
-      </c>
-      <c r="D11" s="15">
-        <v>4</v>
-      </c>
-      <c r="E11" s="15">
+      <c r="C11" s="10">
+        <v>5</v>
+      </c>
+      <c r="D11" s="10">
+        <v>4</v>
+      </c>
+      <c r="E11" s="10">
         <v>4</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -2119,13 +2127,13 @@
       <c r="B12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="16">
-        <v>5</v>
-      </c>
-      <c r="D12" s="16">
-        <v>4</v>
-      </c>
-      <c r="E12" s="16">
+      <c r="C12" s="11">
+        <v>5</v>
+      </c>
+      <c r="D12" s="11">
+        <v>4</v>
+      </c>
+      <c r="E12" s="11">
         <v>4</v>
       </c>
     </row>
@@ -2134,13 +2142,13 @@
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="16">
-        <v>4</v>
-      </c>
-      <c r="D13" s="16">
-        <v>3</v>
-      </c>
-      <c r="E13" s="16">
+      <c r="C13" s="11">
+        <v>4</v>
+      </c>
+      <c r="D13" s="11">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11">
         <v>3</v>
       </c>
     </row>
@@ -2149,22 +2157,22 @@
       <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="15">
-        <v>4</v>
-      </c>
-      <c r="D14" s="15">
-        <v>3</v>
-      </c>
-      <c r="E14" s="15">
-        <v>3</v>
-      </c>
-      <c r="I14" s="10" t="s">
+      <c r="C14" s="10">
+        <v>4</v>
+      </c>
+      <c r="D14" s="10">
+        <v>3</v>
+      </c>
+      <c r="E14" s="10">
+        <v>3</v>
+      </c>
+      <c r="I14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
@@ -2173,62 +2181,62 @@
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="16">
-        <v>5</v>
-      </c>
-      <c r="D15" s="16">
+      <c r="C15" s="11">
+        <v>5</v>
+      </c>
+      <c r="D15" s="11">
         <v>1</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="11">
         <v>2</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="16">
-        <v>4</v>
-      </c>
-      <c r="D16" s="16">
-        <v>3</v>
-      </c>
-      <c r="E16" s="16">
-        <v>3</v>
-      </c>
-      <c r="I16" s="12" t="s">
+      <c r="C16" s="11">
+        <v>4</v>
+      </c>
+      <c r="D16" s="11">
+        <v>3</v>
+      </c>
+      <c r="E16" s="11">
+        <v>3</v>
+      </c>
+      <c r="I16" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="15">
-        <v>3</v>
-      </c>
-      <c r="D17" s="15">
+      <c r="C17" s="10">
+        <v>3</v>
+      </c>
+      <c r="D17" s="10">
         <v>2</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="10">
         <v>2</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
     </row>
     <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
@@ -2237,60 +2245,60 @@
       <c r="B18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="16">
-        <v>5</v>
-      </c>
-      <c r="D18" s="16">
-        <v>3</v>
-      </c>
-      <c r="E18" s="16">
-        <v>3</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
+      <c r="C18" s="11">
+        <v>5</v>
+      </c>
+      <c r="D18" s="11">
+        <v>3</v>
+      </c>
+      <c r="E18" s="11">
+        <v>3</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="16">
-        <v>5</v>
-      </c>
-      <c r="D19" s="16">
-        <v>4</v>
-      </c>
-      <c r="E19" s="16">
-        <v>4</v>
-      </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
+      <c r="C19" s="11">
+        <v>5</v>
+      </c>
+      <c r="D19" s="11">
+        <v>4</v>
+      </c>
+      <c r="E19" s="11">
+        <v>4</v>
+      </c>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
     </row>
     <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
       <c r="B20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="15">
-        <v>5</v>
-      </c>
-      <c r="D20" s="15">
+      <c r="C20" s="10">
+        <v>5</v>
+      </c>
+      <c r="D20" s="10">
         <v>2</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="10">
         <v>2</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
     </row>
     <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
@@ -2299,60 +2307,60 @@
       <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="16">
-        <v>5</v>
-      </c>
-      <c r="D21" s="16">
-        <v>4</v>
-      </c>
-      <c r="E21" s="16">
-        <v>4</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
+      <c r="C21" s="11">
+        <v>5</v>
+      </c>
+      <c r="D21" s="11">
+        <v>4</v>
+      </c>
+      <c r="E21" s="11">
+        <v>4</v>
+      </c>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
     </row>
     <row r="22" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="16">
-        <v>5</v>
-      </c>
-      <c r="D22" s="16">
-        <v>4</v>
-      </c>
-      <c r="E22" s="16">
-        <v>4</v>
-      </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
+      <c r="C22" s="11">
+        <v>5</v>
+      </c>
+      <c r="D22" s="11">
+        <v>4</v>
+      </c>
+      <c r="E22" s="11">
+        <v>4</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
     </row>
     <row r="23" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
       <c r="B23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="15">
-        <v>5</v>
-      </c>
-      <c r="D23" s="15">
-        <v>4</v>
-      </c>
-      <c r="E23" s="15">
-        <v>4</v>
-      </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="C23" s="10">
+        <v>5</v>
+      </c>
+      <c r="D23" s="10">
+        <v>4</v>
+      </c>
+      <c r="E23" s="10">
+        <v>4</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
     </row>
     <row r="24" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
@@ -2361,40 +2369,40 @@
       <c r="B24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="16">
-        <v>4</v>
-      </c>
-      <c r="D24" s="16">
-        <v>4</v>
-      </c>
-      <c r="E24" s="16">
-        <v>4</v>
-      </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="C24" s="11">
+        <v>4</v>
+      </c>
+      <c r="D24" s="11">
+        <v>4</v>
+      </c>
+      <c r="E24" s="11">
+        <v>4</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
     </row>
     <row r="25" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
       <c r="B25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="15">
-        <v>4</v>
-      </c>
-      <c r="D25" s="15">
-        <v>4</v>
-      </c>
-      <c r="E25" s="15">
-        <v>4</v>
-      </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
+      <c r="C25" s="10">
+        <v>4</v>
+      </c>
+      <c r="D25" s="10">
+        <v>4</v>
+      </c>
+      <c r="E25" s="10">
+        <v>4</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
     </row>
     <row r="26" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
@@ -2403,114 +2411,114 @@
       <c r="B26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="16">
-        <v>5</v>
-      </c>
-      <c r="D26" s="16">
+      <c r="C26" s="11">
+        <v>5</v>
+      </c>
+      <c r="D26" s="11">
         <v>2</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="11">
         <v>2</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
       <c r="B27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="15">
-        <v>4</v>
-      </c>
-      <c r="D27" s="15">
-        <v>3</v>
-      </c>
-      <c r="E27" s="15">
+      <c r="C27" s="10">
+        <v>4</v>
+      </c>
+      <c r="D27" s="10">
+        <v>3</v>
+      </c>
+      <c r="E27" s="10">
         <v>2</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
     </row>
     <row r="28" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
     </row>
     <row r="29" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
     </row>
     <row r="30" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
     </row>
     <row r="31" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
     </row>
     <row r="32" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
     </row>
     <row r="33" spans="9:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
     </row>
     <row r="34" spans="9:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
     </row>
     <row r="35" spans="9:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
     </row>
     <row r="36" spans="9:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
     </row>
     <row r="37" spans="9:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2531,8 +2539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB67A6EA-9DCD-4C5B-974C-F03E1D96FE53}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2553,40 +2561,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="I1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="O1" s="10" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
     </row>
     <row r="2" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
@@ -2595,28 +2603,28 @@
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="14" t="s">
         <v>45</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="14" t="s">
         <v>45</v>
       </c>
       <c r="O3" s="9" t="s">
@@ -2991,13 +2999,13 @@
       <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
@@ -3015,11 +3023,11 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
@@ -3035,13 +3043,13 @@
       <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
@@ -3057,11 +3065,11 @@
       <c r="E17" s="5">
         <v>2</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
     </row>
     <row r="18" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
@@ -3079,11 +3087,11 @@
       <c r="E18" s="3">
         <v>2</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -3105,11 +3113,11 @@
       <c r="E19" s="3">
         <v>3</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -3131,11 +3139,11 @@
       <c r="E20" s="5">
         <v>2</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -3159,11 +3167,11 @@
       <c r="E21" s="3">
         <v>2</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -3185,12 +3193,14 @@
       <c r="E22" s="3">
         <v>3</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="O22" s="3"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="O22" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="4"/>
@@ -3211,12 +3221,14 @@
       <c r="E23" s="5">
         <v>2</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="O23" s="3"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="O23" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="4"/>
@@ -3239,11 +3251,11 @@
       <c r="E24" s="3">
         <v>2</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -3265,11 +3277,11 @@
       <c r="E25" s="5">
         <v>3</v>
       </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -3293,13 +3305,13 @@
       <c r="E26" s="3">
         <v>1</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -3321,40 +3333,40 @@
       <c r="E27" s="5">
         <v>1</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
     </row>
     <row r="28" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="20"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="A28" s="15"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
     </row>
     <row r="29" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
     </row>
     <row r="30" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
     </row>
     <row r="31" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
     </row>
     <row r="32" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
@@ -3363,13 +3375,13 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
@@ -3378,11 +3390,11 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
     </row>
     <row r="34" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
@@ -3391,11 +3403,11 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
     </row>
     <row r="35" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
@@ -3404,11 +3416,11 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
     </row>
     <row r="36" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
@@ -3417,11 +3429,11 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
     </row>
     <row r="37" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
@@ -3430,11 +3442,11 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
     </row>
     <row r="38" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
